--- a/results/LGBMClassifier_randomsearch-train_df.xlsx
+++ b/results/LGBMClassifier_randomsearch-train_df.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C17" t="n">
         <v>0.8157894736842105</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7126436781609196</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7367810760667903</v>
+        <v>0.7451388888888889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7442583732057416</v>
+        <v>0.7533492822966508</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7300592128178336</v>
+        <v>0.7404651162790696</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7558152293175335</v>
+        <v>0.7632915173237754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.733242697647592</v>
+        <v>0.7440360090022505</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C22" t="n">
         <v>0.7894736842105263</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7228915662650601</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7766990291262137</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.75</v>
+        <v>0.7409805735430157</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7583732057416268</v>
+        <v>0.7492822966507178</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7497952976956369</v>
+        <v>0.7394957983193277</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7652329749103943</v>
+        <v>0.7572140491182</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7547131840861725</v>
+        <v>0.7441040932502031</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/LGBMClassifier_randomsearch-train_df.xlsx
+++ b/results/LGBMClassifier_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8279569892473119</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7020833333333334</v>
+        <v>0.8274582560296846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7088516746411484</v>
+        <v>0.8274582560296846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6972093023255814</v>
+        <v>0.8274582560296846</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7199820788530465</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7013753438359589</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.803921568627451</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7735849056603775</v>
+        <v>0.7391304347826088</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.7430555555555556</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7411483253588517</v>
+        <v>0.7435064935064934</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7367924528301888</v>
+        <v>0.7419056429232193</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7478389205144423</v>
+        <v>0.7449223416965354</v>
       </c>
       <c r="C11" t="n">
         <v>0.7419354838709677</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.7420548476619618</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.8478260869565218</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.8494623655913979</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6505102040816326</v>
+        <v>0.8506944444444444</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6552631578947368</v>
+        <v>0.8513450834879406</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6436781609195401</v>
+        <v>0.8494449583718779</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6686965108624094</v>
+        <v>0.8527479091995219</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6478803608948214</v>
+        <v>0.8495319944694777</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.7872340425531914</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7599999999999999</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7849462365591398</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7451388888888889</v>
+        <v>0.7861111111111111</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7533492822966508</v>
+        <v>0.7866419294990723</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7404651162790696</v>
+        <v>0.7849213691026826</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7632915173237754</v>
+        <v>0.78805256869773</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7440360090022505</v>
+        <v>0.7850457063849681</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D23" t="n">
-        <v>0.764705882352941</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7409805735430157</v>
+        <v>0.8935574229691876</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7492822966507178</v>
+        <v>0.8910018552875696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7394957983193277</v>
+        <v>0.8918604651162791</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7572140491182</v>
+        <v>0.8929550314749556</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7441040932502031</v>
+        <v>0.8922980745186295</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
